--- a/biology/Zoologie/Arbanitis_longipes/Arbanitis_longipes.xlsx
+++ b/biology/Zoologie/Arbanitis_longipes/Arbanitis_longipes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arbanitis longipes est une espèce d'araignées mygalomorphes de la famille des Idiopidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arbanitis longipes est une espèce d'araignées mygalomorphes de la famille des Idiopidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Australie[1]. Elle se rencontre dans le Nord-Est de la Nouvelle-Galles du Sud et dans le Sud-Est du Queensland[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Australie. Elle se rencontre dans le Nord-Est de la Nouvelle-Galles du Sud et dans le Sud-Est du Queensland.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle décrit par Raven et Wishart en 2006 mesure 6,06 mm de long sur 4,18 mm et l'abdomen 6,68 mm de long sur 3,43 mm et la carapace de la femelle mesure 7,63 mm de long sur 5,56 mm et l'abdomen 8,88 mm de long sur 5,75 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle décrit par Raven et Wishart en 2006 mesure 6,06 mm de long sur 4,18 mm et l'abdomen 6,68 mm de long sur 3,43 mm et la carapace de la femelle mesure 7,63 mm de long sur 5,56 mm et l'abdomen 8,88 mm de long sur 5,75 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>L. Koch, 1873 : Die Arachniden Australiens. Nürnberg, vol. 1, p. 369-472 (texte intégral).</t>
         </is>
